--- a/Водители.xlsx
+++ b/Водители.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46944EEC-A3C8-4641-A3EC-BF4C0AF999B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -16,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="42">
   <si>
     <t>ФИО</t>
   </si>
@@ -33,31 +34,121 @@
     <t>Федотов Сергей Сергеевич</t>
   </si>
   <si>
-    <t>1234 567890 от 01.02.2024</t>
-  </si>
-  <si>
-    <t>12-34-56-789  80</t>
-  </si>
-  <si>
-    <t>7 (995) 555-34-14</t>
-  </si>
-  <si>
     <t>Юдин Илья Геннадьевич</t>
   </si>
   <si>
-    <t>5555 777777 от 05.12.2010</t>
-  </si>
-  <si>
-    <t>10-20-30-425 55</t>
-  </si>
-  <si>
     <t>7 (903) 567-24-63</t>
+  </si>
+  <si>
+    <t>Никитин Сергей Александрович</t>
+  </si>
+  <si>
+    <t>151-565-474 65</t>
+  </si>
+  <si>
+    <t>9927 352553 от 24.09.2011</t>
+  </si>
+  <si>
+    <t>Смирнов Юрий Борисович</t>
+  </si>
+  <si>
+    <t>9934 373934 от 02.09.2023</t>
+  </si>
+  <si>
+    <t>Семенов Алексей Романович</t>
+  </si>
+  <si>
+    <t>5022 878310 от 25.06.2015</t>
+  </si>
+  <si>
+    <t>167-552-896 15</t>
+  </si>
+  <si>
+    <t>167-033-043 43</t>
+  </si>
+  <si>
+    <t>7735 763810 от 14.02.2018</t>
+  </si>
+  <si>
+    <t>060-019-081 05</t>
+  </si>
+  <si>
+    <t>9935 328905 от 01.02.2024</t>
+  </si>
+  <si>
+    <t>180-226-537 46</t>
+  </si>
+  <si>
+    <t>Хасанов Денис Сафаргалиевич</t>
+  </si>
+  <si>
+    <t>9914 755694 от 01.02.2020</t>
+  </si>
+  <si>
+    <t>088-287-792 39</t>
+  </si>
+  <si>
+    <t>Ерёмин Игорь Васильевич</t>
+  </si>
+  <si>
+    <t>9912 130991 от 30.10.2019</t>
+  </si>
+  <si>
+    <t>001-343-916 92</t>
+  </si>
+  <si>
+    <t>7716 971234 от 12.09.2014</t>
+  </si>
+  <si>
+    <t>137-537-192 77</t>
+  </si>
+  <si>
+    <t>Кухарь Виталий Викторович</t>
+  </si>
+  <si>
+    <t>Арзунян Овик Аршалуйсович</t>
+  </si>
+  <si>
+    <t>7024 922262 от 13.01.2016</t>
+  </si>
+  <si>
+    <t>143-097-243 51</t>
+  </si>
+  <si>
+    <t>Никулин Михаил Вячеславович</t>
+  </si>
+  <si>
+    <t>9904 655580 от 06.12.2018</t>
+  </si>
+  <si>
+    <t>127-081-285 44</t>
+  </si>
+  <si>
+    <t>Козырев Павел Борисович</t>
+  </si>
+  <si>
+    <t>9913 147383 от 21.11.2019</t>
+  </si>
+  <si>
+    <t>134-665-916 81</t>
+  </si>
+  <si>
+    <t>7 (977) 720-07-80</t>
+  </si>
+  <si>
+    <t>Сергеев Сергей Викторович</t>
+  </si>
+  <si>
+    <t>9929 482554 от 10.12.2021</t>
+  </si>
+  <si>
+    <t>168-462-852 09</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -87,8 +178,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -99,14 +191,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -144,7 +239,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -216,7 +311,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -389,16 +484,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
@@ -423,27 +518,167 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="D3" t="s">
+      <c r="B5" t="s">
         <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -452,7 +687,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -464,7 +699,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
